--- a/va_facility_data_2025-02-20/Orlando VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Orlando%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Orlando VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Orlando%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rbb6efb98be6241caa7d85ddf1dcf0522"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R3155edeb5cec4060a6ad7f3e2026dda7"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd68a793dc58548e6be0f35e2870b7009"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R33cb0dbeddda4a24a29e111e7a4af846"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Ra5a4f541fc914b4ea72f49242731970b"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R59e09f525a0949f6be938b75806bf226"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R85b139519502406fa16f4ba9356e1e8a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R2b7ee8307bd14eb4bc1b2a4175a1064f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R1a470e63e881438d821d60cb52d83c1f"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R1981bc5a1f8a48cc9be71fcb0bfc03ee"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R53ea5e6b845244f98158d08c6c1850de"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R28d21d9b7fad44c497f32f0ec1f0e97b"/>
   </x:sheets>
 </x:workbook>
 </file>
